--- a/output/amigos de la tierra.xlsx
+++ b/output/amigos de la tierra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -522,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +540,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,10 +649,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -742,15 +760,24 @@
         <v>0.07492289812696862</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>314476.3333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -849,15 +876,24 @@
         <v>0.07492289812696862</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>314476.3333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -956,15 +992,24 @@
         <v>0.07492289812696862</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>314476.3333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1063,15 +1108,24 @@
         <v>0.03672866941154242</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>268335</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1170,15 +1224,24 @@
         <v>0.03672866941154242</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>488584</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1277,15 +1340,24 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>55121.355</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1384,15 +1456,24 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>201911.785</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1491,15 +1572,24 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>117850.045</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1598,15 +1688,24 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>55121.355</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1705,15 +1804,24 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>201911.785</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1812,15 +1920,24 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>117850.045</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1919,15 +2036,24 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>25845.075</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2026,15 +2152,24 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>55513.6</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2133,15 +2268,24 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>180157.26</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2240,15 +2384,24 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>25845.075</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2347,15 +2500,24 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>55513.6</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2454,15 +2616,24 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>180157.26</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2561,15 +2732,24 @@
         <v>0.001656563312252094</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>92300</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2668,15 +2848,24 @@
         <v>0.001656563312252094</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>226068</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2775,9 +2964,18 @@
         <v>0.001656563312252094</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>241135</v>
       </c>
     </row>

--- a/output/amigos de la tierra.xlsx
+++ b/output/amigos de la tierra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -531,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +546,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,10 +664,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -760,11 +772,11 @@
         <v>0.07492289812696862</v>
       </c>
       <c r="AI2">
+        <v>0.9250771018730314</v>
+      </c>
+      <c r="AJ2">
         <v>1979</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
       <c r="AK2">
         <v>1</v>
       </c>
@@ -772,12 +784,18 @@
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>314476.3333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -876,11 +894,11 @@
         <v>0.07492289812696862</v>
       </c>
       <c r="AI3">
+        <v>0.9250771018730314</v>
+      </c>
+      <c r="AJ3">
         <v>1979</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
       <c r="AK3">
         <v>1</v>
       </c>
@@ -888,12 +906,18 @@
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>314476.3333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -992,11 +1016,11 @@
         <v>0.07492289812696862</v>
       </c>
       <c r="AI4">
+        <v>0.9250771018730314</v>
+      </c>
+      <c r="AJ4">
         <v>1979</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
       <c r="AK4">
         <v>1</v>
       </c>
@@ -1004,12 +1028,18 @@
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>314476.3333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1108,11 +1138,11 @@
         <v>0.03672866941154242</v>
       </c>
       <c r="AI5">
+        <v>0.3502823282666833</v>
+      </c>
+      <c r="AJ5">
         <v>1979</v>
       </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
       <c r="AK5">
         <v>1</v>
       </c>
@@ -1120,12 +1150,18 @@
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>268335</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1224,11 +1260,11 @@
         <v>0.03672866941154242</v>
       </c>
       <c r="AI6">
+        <v>0.3502823282666833</v>
+      </c>
+      <c r="AJ6">
         <v>1979</v>
       </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
       <c r="AK6">
         <v>1</v>
       </c>
@@ -1236,12 +1272,18 @@
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>488584</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1340,11 +1382,11 @@
         <v>0</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>1979</v>
       </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
       <c r="AK7">
         <v>1</v>
       </c>
@@ -1352,12 +1394,18 @@
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>55121.355</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1456,11 +1504,11 @@
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>1979</v>
       </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
       <c r="AK8">
         <v>1</v>
       </c>
@@ -1468,12 +1516,18 @@
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>201911.785</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1572,11 +1626,11 @@
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>1979</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
       <c r="AK9">
         <v>1</v>
       </c>
@@ -1584,12 +1638,18 @@
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>117850.045</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1688,11 +1748,11 @@
         <v>0</v>
       </c>
       <c r="AI10">
+        <v>0.3920916656563066</v>
+      </c>
+      <c r="AJ10">
         <v>1979</v>
       </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
       <c r="AK10">
         <v>1</v>
       </c>
@@ -1700,12 +1760,18 @@
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>55121.355</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1804,11 +1870,11 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0.3920916656563066</v>
+      </c>
+      <c r="AJ11">
         <v>1979</v>
       </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
       <c r="AK11">
         <v>1</v>
       </c>
@@ -1816,12 +1882,18 @@
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>201911.785</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1920,11 +1992,11 @@
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0.3920916656563066</v>
+      </c>
+      <c r="AJ12">
         <v>1979</v>
       </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
       <c r="AK12">
         <v>1</v>
       </c>
@@ -1932,12 +2004,18 @@
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>117850.045</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2036,11 +2114,11 @@
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>0.5649415131313447</v>
+      </c>
+      <c r="AJ13">
         <v>1979</v>
       </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
       <c r="AK13">
         <v>1</v>
       </c>
@@ -2048,12 +2126,18 @@
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>25845.075</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2152,11 +2236,11 @@
         <v>0</v>
       </c>
       <c r="AI14">
+        <v>0.5649415131313447</v>
+      </c>
+      <c r="AJ14">
         <v>1979</v>
       </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
       <c r="AK14">
         <v>1</v>
       </c>
@@ -2164,12 +2248,18 @@
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>55513.6</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2268,11 +2358,11 @@
         <v>0</v>
       </c>
       <c r="AI15">
+        <v>0.5649415131313447</v>
+      </c>
+      <c r="AJ15">
         <v>1979</v>
       </c>
-      <c r="AJ15">
-        <v>1</v>
-      </c>
       <c r="AK15">
         <v>1</v>
       </c>
@@ -2280,12 +2370,18 @@
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>180157.26</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2384,11 +2480,11 @@
         <v>0</v>
       </c>
       <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
         <v>1979</v>
       </c>
-      <c r="AJ16">
-        <v>1</v>
-      </c>
       <c r="AK16">
         <v>1</v>
       </c>
@@ -2396,12 +2492,18 @@
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>25845.075</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2500,11 +2602,11 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
         <v>1979</v>
       </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
       <c r="AK17">
         <v>1</v>
       </c>
@@ -2512,12 +2614,18 @@
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>55513.6</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2616,11 +2724,11 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
         <v>1979</v>
       </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
       <c r="AK18">
         <v>1</v>
       </c>
@@ -2628,12 +2736,18 @@
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>180157.26</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2732,11 +2846,11 @@
         <v>0.001656563312252094</v>
       </c>
       <c r="AI19">
+        <v>0.2631265824594331</v>
+      </c>
+      <c r="AJ19">
         <v>1979</v>
       </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
       <c r="AK19">
         <v>1</v>
       </c>
@@ -2744,12 +2858,18 @@
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>92300</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2848,11 +2968,11 @@
         <v>0.001656563312252094</v>
       </c>
       <c r="AI20">
+        <v>0.2631265824594331</v>
+      </c>
+      <c r="AJ20">
         <v>1979</v>
       </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
       <c r="AK20">
         <v>1</v>
       </c>
@@ -2860,12 +2980,18 @@
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>226068</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2964,11 +3090,11 @@
         <v>0.001656563312252094</v>
       </c>
       <c r="AI21">
+        <v>0.2631265824594331</v>
+      </c>
+      <c r="AJ21">
         <v>1979</v>
       </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
       <c r="AK21">
         <v>1</v>
       </c>
@@ -2976,6 +3102,12 @@
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>241135</v>
       </c>
     </row>

--- a/output/amigos de la tierra.xlsx
+++ b/output/amigos de la tierra.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D2">
         <v>335647</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D3">
         <v>250000</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D4">
         <v>513848</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D8">
         <v>155095</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D9">
         <v>120000</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D11">
         <v>350000</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D12">
         <v>150000</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D14">
         <v>150000</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D15">
         <v>118214</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D16">
         <v>196250</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D17">
         <v>231460</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D18">
         <v>118214</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D19">
         <v>196250</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D20">
         <v>226068</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D21">
         <v>599757</v>

--- a/output/amigos de la tierra.xlsx
+++ b/output/amigos de la tierra.xlsx
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>55121.355</v>
+        <v>268335</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>350000</v>
       </c>
       <c r="E11">
-        <v>201911.785</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>150000</v>
       </c>
       <c r="E12">
-        <v>117850.045</v>
+        <v>488584</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>2025.814194788851</v>
       </c>
       <c r="D14">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>117850.045</v>
@@ -2393,7 +2393,7 @@
         <v>196250</v>
       </c>
       <c r="E16">
-        <v>25845.075</v>
+        <v>55121.355</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>231460</v>
       </c>
       <c r="E17">
-        <v>55513.6</v>
+        <v>117850.045</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2634,10 +2634,10 @@
         <v>1836.014008604312</v>
       </c>
       <c r="D18">
-        <v>118214</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>180157.26</v>
+        <v>201911.785</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>3382.563653843273</v>
       </c>
       <c r="D19">
-        <v>196250</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>25845.075</v>
